--- a/documents/#詳細設計書/インフラ設計.xlsx
+++ b/documents/#詳細設計書/インフラ設計.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\SSN\documents\#詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E102CD-839D-45B9-BBC5-E0F05B76F661}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6F11F7-39B6-41E5-B571-B3759EF88C69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サーバ設計" sheetId="1" r:id="rId1"/>
     <sheet name="ID設計" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ID設計!$A$1:$AJ$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ID設計!$A$1:$AJ$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">サーバ設計!$A$1:$AJ$54</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>詳細設計書</t>
     <rPh sb="0" eb="2">
@@ -407,6 +407,213 @@
     <rPh sb="2" eb="4">
       <t>セッケイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名称</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発環境</t>
+    <rPh sb="0" eb="4">
+      <t>カイハツカンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jobuser01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jobadmin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainte01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sftpuser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ftpuser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>devadmin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特権ユーザー</t>
+    <rPh sb="0" eb="2">
+      <t>トッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特別作業、原則不可</t>
+    <rPh sb="0" eb="4">
+      <t>トクベ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンソク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監視プログラム実行ユーザー</t>
+    <rPh sb="0" eb="2">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監視プログラム管理者ユーザー</t>
+    <rPh sb="0" eb="2">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保守・メンテナンスユーザー</t>
+    <rPh sb="0" eb="2">
+      <t>ホシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sftp処理用ユーザー</t>
+    <rPh sb="4" eb="7">
+      <t>ショリヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ftp処理用ユーザー</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人向け開発ユーザー</t>
+    <rPh sb="0" eb="3">
+      <t>コジンム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発ユーザーの管理ユーザー</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>31000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/1/24</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -814,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -940,6 +1147,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1224,16 +1434,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="13.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.9" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="2.19921875" style="8"/>
+    <col min="1" max="16384" width="2.25" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="13.8" customHeight="1">
+    <row r="1" spans="1:36" ht="13.9" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1487,7 @@
       <c r="AI1" s="6"/>
       <c r="AJ1" s="7"/>
     </row>
-    <row r="2" spans="1:36" ht="13.8" customHeight="1">
+    <row r="2" spans="1:36" ht="13.9" customHeight="1">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1319,7 +1529,7 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:36" ht="13.8" customHeight="1">
+    <row r="3" spans="1:36" ht="13.9" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +1573,7 @@
       <c r="AI3" s="13"/>
       <c r="AJ3" s="15"/>
     </row>
-    <row r="4" spans="1:36" ht="13.8" customHeight="1">
+    <row r="4" spans="1:36" ht="13.9" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -1405,7 +1615,7 @@
       <c r="AI4" s="13"/>
       <c r="AJ4" s="15"/>
     </row>
-    <row r="5" spans="1:36" ht="13.8" customHeight="1" thickBot="1">
+    <row r="5" spans="1:36" ht="13.9" customHeight="1" thickBot="1">
       <c r="A5" s="22"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -1447,7 +1657,7 @@
       <c r="AI5" s="26"/>
       <c r="AJ5" s="28"/>
     </row>
-    <row r="6" spans="1:36" ht="13.8" customHeight="1">
+    <row r="6" spans="1:36" ht="13.9" customHeight="1">
       <c r="A6" s="29"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1485,7 +1695,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="7"/>
     </row>
-    <row r="7" spans="1:36" ht="13.8" customHeight="1">
+    <row r="7" spans="1:36" ht="13.9" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
         <v>12</v>
@@ -1527,7 +1737,7 @@
       <c r="AI7" s="20"/>
       <c r="AJ7" s="30"/>
     </row>
-    <row r="8" spans="1:36" ht="13.8" customHeight="1">
+    <row r="8" spans="1:36" ht="13.9" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20" t="s">
@@ -1569,7 +1779,7 @@
       <c r="AI8" s="20"/>
       <c r="AJ8" s="30"/>
     </row>
-    <row r="9" spans="1:36" ht="13.8" customHeight="1">
+    <row r="9" spans="1:36" ht="13.9" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -1610,7 +1820,7 @@
       <c r="AI9" s="20"/>
       <c r="AJ9" s="30"/>
     </row>
-    <row r="10" spans="1:36" ht="13.8" customHeight="1">
+    <row r="10" spans="1:36" ht="13.9" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -1651,7 +1861,7 @@
       <c r="AI10" s="20"/>
       <c r="AJ10" s="30"/>
     </row>
-    <row r="11" spans="1:36" ht="13.8" customHeight="1">
+    <row r="11" spans="1:36" ht="13.9" customHeight="1">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -1689,7 +1899,7 @@
       <c r="AI11" s="20"/>
       <c r="AJ11" s="30"/>
     </row>
-    <row r="12" spans="1:36" ht="13.8" customHeight="1">
+    <row r="12" spans="1:36" ht="13.9" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -1727,7 +1937,7 @@
       <c r="AI12" s="20"/>
       <c r="AJ12" s="30"/>
     </row>
-    <row r="13" spans="1:36" ht="13.8" customHeight="1">
+    <row r="13" spans="1:36" ht="13.9" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20" t="s">
@@ -1769,7 +1979,7 @@
       <c r="AI13" s="20"/>
       <c r="AJ13" s="30"/>
     </row>
-    <row r="14" spans="1:36" ht="13.8" customHeight="1">
+    <row r="14" spans="1:36" ht="13.9" customHeight="1">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -1809,7 +2019,7 @@
       <c r="AI14" s="20"/>
       <c r="AJ14" s="30"/>
     </row>
-    <row r="15" spans="1:36" ht="13.8" customHeight="1">
+    <row r="15" spans="1:36" ht="13.9" customHeight="1">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -1850,7 +2060,7 @@
       <c r="AH15" s="20"/>
       <c r="AJ15" s="30"/>
     </row>
-    <row r="16" spans="1:36" ht="13.8" customHeight="1">
+    <row r="16" spans="1:36" ht="13.9" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -1896,7 +2106,7 @@
       <c r="AI16" s="33"/>
       <c r="AJ16" s="30"/>
     </row>
-    <row r="17" spans="1:36" ht="13.8" customHeight="1">
+    <row r="17" spans="1:36" ht="13.9" customHeight="1">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -1942,7 +2152,7 @@
       <c r="AI17" s="14"/>
       <c r="AJ17" s="30"/>
     </row>
-    <row r="18" spans="1:36" ht="13.8" customHeight="1">
+    <row r="18" spans="1:36" ht="13.9" customHeight="1">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -1988,7 +2198,7 @@
       <c r="AI18" s="11"/>
       <c r="AJ18" s="30"/>
     </row>
-    <row r="19" spans="1:36" ht="13.2" customHeight="1">
+    <row r="19" spans="1:36" ht="13.15" customHeight="1">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -2028,7 +2238,7 @@
       <c r="AI19" s="39"/>
       <c r="AJ19" s="30"/>
     </row>
-    <row r="20" spans="1:36" ht="13.8" customHeight="1">
+    <row r="20" spans="1:36" ht="13.9" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -2066,7 +2276,7 @@
       <c r="AI20" s="20"/>
       <c r="AJ20" s="30"/>
     </row>
-    <row r="21" spans="1:36" ht="13.8" customHeight="1">
+    <row r="21" spans="1:36" ht="13.9" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -2107,7 +2317,7 @@
       <c r="AH21" s="20"/>
       <c r="AJ21" s="30"/>
     </row>
-    <row r="22" spans="1:36" ht="13.8" customHeight="1">
+    <row r="22" spans="1:36" ht="13.9" customHeight="1">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -2153,7 +2363,7 @@
       <c r="AI22" s="33"/>
       <c r="AJ22" s="30"/>
     </row>
-    <row r="23" spans="1:36" ht="13.8" customHeight="1">
+    <row r="23" spans="1:36" ht="13.9" customHeight="1">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -2199,7 +2409,7 @@
       <c r="AI23" s="11"/>
       <c r="AJ23" s="30"/>
     </row>
-    <row r="24" spans="1:36" ht="13.8" customHeight="1">
+    <row r="24" spans="1:36" ht="13.9" customHeight="1">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -2237,7 +2447,7 @@
       <c r="AI24" s="39"/>
       <c r="AJ24" s="30"/>
     </row>
-    <row r="25" spans="1:36" ht="13.8" customHeight="1">
+    <row r="25" spans="1:36" ht="13.9" customHeight="1">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -2283,7 +2493,7 @@
       <c r="AI25" s="11"/>
       <c r="AJ25" s="30"/>
     </row>
-    <row r="26" spans="1:36" ht="13.8" customHeight="1">
+    <row r="26" spans="1:36" ht="13.9" customHeight="1">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -2325,7 +2535,7 @@
       <c r="AI26" s="21"/>
       <c r="AJ26" s="30"/>
     </row>
-    <row r="27" spans="1:36" ht="13.8" customHeight="1">
+    <row r="27" spans="1:36" ht="13.9" customHeight="1">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -2363,7 +2573,7 @@
       <c r="AI27" s="39"/>
       <c r="AJ27" s="30"/>
     </row>
-    <row r="28" spans="1:36" ht="13.8" customHeight="1">
+    <row r="28" spans="1:36" ht="13.9" customHeight="1">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -2409,7 +2619,7 @@
       <c r="AI28" s="11"/>
       <c r="AJ28" s="30"/>
     </row>
-    <row r="29" spans="1:36" ht="13.8" customHeight="1">
+    <row r="29" spans="1:36" ht="13.9" customHeight="1">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -2449,7 +2659,7 @@
       <c r="AI29" s="39"/>
       <c r="AJ29" s="30"/>
     </row>
-    <row r="30" spans="1:36" ht="13.8" customHeight="1">
+    <row r="30" spans="1:36" ht="13.9" customHeight="1">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -2487,7 +2697,7 @@
       <c r="AI30" s="20"/>
       <c r="AJ30" s="30"/>
     </row>
-    <row r="31" spans="1:36" ht="13.8" customHeight="1">
+    <row r="31" spans="1:36" ht="13.9" customHeight="1">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -2525,7 +2735,7 @@
       <c r="AI31" s="20"/>
       <c r="AJ31" s="30"/>
     </row>
-    <row r="32" spans="1:36" ht="13.8" customHeight="1">
+    <row r="32" spans="1:36" ht="13.9" customHeight="1">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -2563,7 +2773,7 @@
       <c r="AI32" s="20"/>
       <c r="AJ32" s="30"/>
     </row>
-    <row r="33" spans="1:36" ht="13.8" customHeight="1">
+    <row r="33" spans="1:36" ht="13.9" customHeight="1">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -2601,7 +2811,7 @@
       <c r="AI33" s="20"/>
       <c r="AJ33" s="30"/>
     </row>
-    <row r="34" spans="1:36" ht="13.8" customHeight="1">
+    <row r="34" spans="1:36" ht="13.9" customHeight="1">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -2639,7 +2849,7 @@
       <c r="AI34" s="20"/>
       <c r="AJ34" s="30"/>
     </row>
-    <row r="35" spans="1:36" ht="13.8" customHeight="1">
+    <row r="35" spans="1:36" ht="13.9" customHeight="1">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -2677,7 +2887,7 @@
       <c r="AI35" s="20"/>
       <c r="AJ35" s="30"/>
     </row>
-    <row r="36" spans="1:36" ht="13.8" customHeight="1">
+    <row r="36" spans="1:36" ht="13.9" customHeight="1">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -2715,7 +2925,7 @@
       <c r="AI36" s="20"/>
       <c r="AJ36" s="30"/>
     </row>
-    <row r="37" spans="1:36" ht="13.8" customHeight="1">
+    <row r="37" spans="1:36" ht="13.9" customHeight="1">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -2753,7 +2963,7 @@
       <c r="AI37" s="20"/>
       <c r="AJ37" s="30"/>
     </row>
-    <row r="38" spans="1:36" ht="13.8" customHeight="1">
+    <row r="38" spans="1:36" ht="13.9" customHeight="1">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -2791,7 +3001,7 @@
       <c r="AI38" s="20"/>
       <c r="AJ38" s="30"/>
     </row>
-    <row r="39" spans="1:36" ht="13.8" customHeight="1">
+    <row r="39" spans="1:36" ht="13.9" customHeight="1">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -2829,7 +3039,7 @@
       <c r="AI39" s="20"/>
       <c r="AJ39" s="30"/>
     </row>
-    <row r="40" spans="1:36" ht="13.8" customHeight="1">
+    <row r="40" spans="1:36" ht="13.9" customHeight="1">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -2867,7 +3077,7 @@
       <c r="AI40" s="20"/>
       <c r="AJ40" s="30"/>
     </row>
-    <row r="41" spans="1:36" ht="13.8" customHeight="1">
+    <row r="41" spans="1:36" ht="13.9" customHeight="1">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -2905,7 +3115,7 @@
       <c r="AI41" s="20"/>
       <c r="AJ41" s="30"/>
     </row>
-    <row r="42" spans="1:36" ht="13.8" customHeight="1">
+    <row r="42" spans="1:36" ht="13.9" customHeight="1">
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -2943,7 +3153,7 @@
       <c r="AI42" s="20"/>
       <c r="AJ42" s="30"/>
     </row>
-    <row r="43" spans="1:36" ht="13.8" customHeight="1">
+    <row r="43" spans="1:36" ht="13.9" customHeight="1">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -2981,7 +3191,7 @@
       <c r="AI43" s="20"/>
       <c r="AJ43" s="30"/>
     </row>
-    <row r="44" spans="1:36" ht="13.8" customHeight="1">
+    <row r="44" spans="1:36" ht="13.9" customHeight="1">
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -3019,7 +3229,7 @@
       <c r="AI44" s="20"/>
       <c r="AJ44" s="30"/>
     </row>
-    <row r="45" spans="1:36" ht="13.8" customHeight="1">
+    <row r="45" spans="1:36" ht="13.9" customHeight="1">
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -3057,7 +3267,7 @@
       <c r="AI45" s="20"/>
       <c r="AJ45" s="30"/>
     </row>
-    <row r="46" spans="1:36" ht="13.8" customHeight="1">
+    <row r="46" spans="1:36" ht="13.9" customHeight="1">
       <c r="A46" s="19"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -3095,7 +3305,7 @@
       <c r="AI46" s="20"/>
       <c r="AJ46" s="30"/>
     </row>
-    <row r="47" spans="1:36" ht="13.8" customHeight="1">
+    <row r="47" spans="1:36" ht="13.9" customHeight="1">
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -3133,7 +3343,7 @@
       <c r="AI47" s="20"/>
       <c r="AJ47" s="30"/>
     </row>
-    <row r="48" spans="1:36" ht="13.8" customHeight="1">
+    <row r="48" spans="1:36" ht="13.9" customHeight="1">
       <c r="A48" s="19"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -3171,7 +3381,7 @@
       <c r="AI48" s="20"/>
       <c r="AJ48" s="30"/>
     </row>
-    <row r="49" spans="1:36" ht="13.8" customHeight="1">
+    <row r="49" spans="1:36" ht="13.9" customHeight="1">
       <c r="A49" s="19"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -3209,7 +3419,7 @@
       <c r="AI49" s="20"/>
       <c r="AJ49" s="30"/>
     </row>
-    <row r="50" spans="1:36" ht="13.8" customHeight="1">
+    <row r="50" spans="1:36" ht="13.9" customHeight="1">
       <c r="A50" s="19"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -3247,7 +3457,7 @@
       <c r="AI50" s="20"/>
       <c r="AJ50" s="30"/>
     </row>
-    <row r="51" spans="1:36" ht="13.8" customHeight="1">
+    <row r="51" spans="1:36" ht="13.9" customHeight="1">
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -3285,7 +3495,7 @@
       <c r="AI51" s="20"/>
       <c r="AJ51" s="30"/>
     </row>
-    <row r="52" spans="1:36" ht="13.8" customHeight="1">
+    <row r="52" spans="1:36" ht="13.9" customHeight="1">
       <c r="A52" s="19"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -3323,7 +3533,7 @@
       <c r="AI52" s="20"/>
       <c r="AJ52" s="30"/>
     </row>
-    <row r="53" spans="1:36" ht="13.8" customHeight="1">
+    <row r="53" spans="1:36" ht="13.9" customHeight="1">
       <c r="A53" s="19"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -3361,7 +3571,7 @@
       <c r="AI53" s="20"/>
       <c r="AJ53" s="30"/>
     </row>
-    <row r="54" spans="1:36" ht="13.8" customHeight="1" thickBot="1">
+    <row r="54" spans="1:36" ht="13.9" customHeight="1" thickBot="1">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -3408,18 +3618,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E04B9DE-6BFC-4023-A505-A6C14A8FA992}">
-  <dimension ref="A1:AJ54"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="13.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.9" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="2.19921875" style="8"/>
+    <col min="1" max="16384" width="2.25" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="13.8" customHeight="1">
+    <row r="1" spans="1:36" ht="13.9" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3463,7 +3673,7 @@
       <c r="AI1" s="6"/>
       <c r="AJ1" s="7"/>
     </row>
-    <row r="2" spans="1:36" ht="13.8" customHeight="1">
+    <row r="2" spans="1:36" ht="13.9" customHeight="1">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3505,7 +3715,7 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:36" ht="13.8" customHeight="1">
+    <row r="3" spans="1:36" ht="13.9" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
@@ -3549,7 +3759,7 @@
       <c r="AI3" s="13"/>
       <c r="AJ3" s="15"/>
     </row>
-    <row r="4" spans="1:36" ht="13.8" customHeight="1">
+    <row r="4" spans="1:36" ht="13.9" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -3591,7 +3801,7 @@
       <c r="AI4" s="13"/>
       <c r="AJ4" s="15"/>
     </row>
-    <row r="5" spans="1:36" ht="13.8" customHeight="1" thickBot="1">
+    <row r="5" spans="1:36" ht="13.9" customHeight="1" thickBot="1">
       <c r="A5" s="22"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -3622,7 +3832,7 @@
       <c r="Z5" s="26"/>
       <c r="AA5" s="27"/>
       <c r="AB5" s="26" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="AC5" s="26"/>
       <c r="AD5" s="26"/>
@@ -3633,7 +3843,7 @@
       <c r="AI5" s="26"/>
       <c r="AJ5" s="28"/>
     </row>
-    <row r="6" spans="1:36" ht="13.8" customHeight="1">
+    <row r="6" spans="1:36" ht="13.9" customHeight="1">
       <c r="A6" s="29"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3671,7 +3881,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="7"/>
     </row>
-    <row r="7" spans="1:36" ht="13.8" customHeight="1">
+    <row r="7" spans="1:36" ht="13.9" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
         <v>12</v>
@@ -3713,7 +3923,7 @@
       <c r="AI7" s="20"/>
       <c r="AJ7" s="30"/>
     </row>
-    <row r="8" spans="1:36" ht="13.8" customHeight="1">
+    <row r="8" spans="1:36" ht="13.9" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20" t="s">
@@ -3721,7 +3931,7 @@
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -3755,127 +3965,141 @@
       <c r="AI8" s="20"/>
       <c r="AJ8" s="30"/>
     </row>
-    <row r="9" spans="1:36" ht="13.8" customHeight="1">
+    <row r="9" spans="1:36" ht="13.9" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
-      <c r="E9" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="14"/>
+      <c r="D9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
       <c r="AG9" s="20"/>
       <c r="AH9" s="20"/>
       <c r="AI9" s="20"/>
       <c r="AJ9" s="30"/>
     </row>
-    <row r="10" spans="1:36" ht="13.8" customHeight="1">
+    <row r="10" spans="1:36" ht="13.9" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
-      <c r="E10" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="33"/>
       <c r="AJ10" s="30"/>
     </row>
-    <row r="11" spans="1:36" ht="13.8" customHeight="1">
+    <row r="11" spans="1:36" ht="13.9" customHeight="1">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
+      <c r="G11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="14"/>
       <c r="AJ11" s="30"/>
     </row>
-    <row r="12" spans="1:36" ht="13.8" customHeight="1">
+    <row r="12" spans="1:36" ht="13.9" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -3913,17 +4137,17 @@
       <c r="AI12" s="20"/>
       <c r="AJ12" s="30"/>
     </row>
-    <row r="13" spans="1:36" ht="13.8" customHeight="1">
+    <row r="13" spans="1:36" ht="13.9" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
@@ -3955,134 +4179,145 @@
       <c r="AI13" s="20"/>
       <c r="AJ13" s="30"/>
     </row>
-    <row r="14" spans="1:36" ht="13.8" customHeight="1">
+    <row r="14" spans="1:36" ht="13.9" customHeight="1">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="E14" s="20"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="20"/>
+      <c r="G14" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="33"/>
       <c r="AJ14" s="30"/>
     </row>
-    <row r="15" spans="1:36" ht="13.8" customHeight="1">
+    <row r="15" spans="1:36" ht="13.9" customHeight="1">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="E15" s="20"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="20"/>
-      <c r="AH15" s="20"/>
+      <c r="G15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="14"/>
       <c r="AJ15" s="30"/>
     </row>
-    <row r="16" spans="1:36" ht="13.8" customHeight="1">
+    <row r="16" spans="1:36" ht="13.9" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="33"/>
+      <c r="G16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="14"/>
       <c r="AJ16" s="30"/>
     </row>
-    <row r="17" spans="1:36" ht="13.8" customHeight="1">
+    <row r="17" spans="1:36" ht="13.9" customHeight="1">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -4090,7 +4325,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="12" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -4099,23 +4334,23 @@
       <c r="L17" s="13"/>
       <c r="M17" s="14"/>
       <c r="N17" s="12" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="14"/>
       <c r="S17" s="12" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
       <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="X17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
@@ -4128,93 +4363,99 @@
       <c r="AI17" s="14"/>
       <c r="AJ17" s="30"/>
     </row>
-    <row r="18" spans="1:36" ht="13.8" customHeight="1">
+    <row r="18" spans="1:36" ht="13.9" customHeight="1">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="11"/>
+      <c r="G18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="14"/>
       <c r="AJ18" s="30"/>
     </row>
-    <row r="19" spans="1:36" ht="13.2" customHeight="1">
+    <row r="19" spans="1:36" ht="13.9" customHeight="1">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="39"/>
+      <c r="G19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="14"/>
       <c r="AJ19" s="30"/>
     </row>
-    <row r="20" spans="1:36" ht="13.8" customHeight="1">
+    <row r="20" spans="1:36" ht="13.9" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -4252,18 +4493,18 @@
       <c r="AI20" s="20"/>
       <c r="AJ20" s="30"/>
     </row>
-    <row r="21" spans="1:36" ht="13.8" customHeight="1">
+    <row r="21" spans="1:36" ht="13.9" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -4291,17 +4532,18 @@
       <c r="AF21" s="20"/>
       <c r="AG21" s="20"/>
       <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
       <c r="AJ21" s="30"/>
     </row>
-    <row r="22" spans="1:36" ht="13.8" customHeight="1">
+    <row r="22" spans="1:36" ht="13.9" customHeight="1">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="31" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
@@ -4310,23 +4552,23 @@
       <c r="L22" s="32"/>
       <c r="M22" s="33"/>
       <c r="N22" s="31" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="O22" s="32"/>
       <c r="P22" s="32"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="33"/>
       <c r="S22" s="31" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="31" t="s">
+      <c r="X22" s="31" t="s">
         <v>33</v>
       </c>
+      <c r="Y22" s="32"/>
       <c r="Z22" s="32"/>
       <c r="AA22" s="32"/>
       <c r="AB22" s="32"/>
@@ -4339,166 +4581,166 @@
       <c r="AI22" s="33"/>
       <c r="AJ22" s="30"/>
     </row>
-    <row r="23" spans="1:36" ht="13.8" customHeight="1">
+    <row r="23" spans="1:36" ht="13.9" customHeight="1">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="11"/>
+      <c r="G23" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="14"/>
       <c r="AJ23" s="30"/>
     </row>
-    <row r="24" spans="1:36" ht="13.8" customHeight="1">
+    <row r="24" spans="1:36" ht="13.9" customHeight="1">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="39"/>
+      <c r="G24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="14"/>
       <c r="AJ24" s="30"/>
     </row>
-    <row r="25" spans="1:36" ht="13.8" customHeight="1">
+    <row r="25" spans="1:36" ht="13.9" customHeight="1">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="11"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
       <c r="AJ25" s="30"/>
     </row>
-    <row r="26" spans="1:36" ht="13.8" customHeight="1">
+    <row r="26" spans="1:36" ht="13.9" customHeight="1">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="E26" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="F26" s="20"/>
-      <c r="G26" s="42" t="s">
-        <v>39</v>
-      </c>
+      <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="42"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="20"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="42"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
-      <c r="Y26" s="42" t="s">
-        <v>47</v>
-      </c>
+      <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
@@ -4508,134 +4750,124 @@
       <c r="AF26" s="20"/>
       <c r="AG26" s="20"/>
       <c r="AH26" s="20"/>
-      <c r="AI26" s="21"/>
+      <c r="AI26" s="20"/>
       <c r="AJ26" s="30"/>
     </row>
-    <row r="27" spans="1:36" ht="13.8" customHeight="1">
+    <row r="27" spans="1:36" ht="13.9" customHeight="1">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="38"/>
-      <c r="AG27" s="38"/>
-      <c r="AH27" s="38"/>
-      <c r="AI27" s="39"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
       <c r="AJ27" s="30"/>
     </row>
-    <row r="28" spans="1:36" ht="13.8" customHeight="1">
+    <row r="28" spans="1:36" ht="13.9" customHeight="1">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="11"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
       <c r="AJ28" s="30"/>
     </row>
-    <row r="29" spans="1:36" ht="13.8" customHeight="1">
+    <row r="29" spans="1:36" ht="13.9" customHeight="1">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="38"/>
-      <c r="AE29" s="38"/>
-      <c r="AF29" s="38"/>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="38"/>
-      <c r="AI29" s="39"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
       <c r="AJ29" s="30"/>
     </row>
-    <row r="30" spans="1:36" ht="13.8" customHeight="1">
+    <row r="30" spans="1:36" ht="13.9" customHeight="1">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -4673,7 +4905,7 @@
       <c r="AI30" s="20"/>
       <c r="AJ30" s="30"/>
     </row>
-    <row r="31" spans="1:36" ht="13.8" customHeight="1">
+    <row r="31" spans="1:36" ht="13.9" customHeight="1">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -4711,7 +4943,7 @@
       <c r="AI31" s="20"/>
       <c r="AJ31" s="30"/>
     </row>
-    <row r="32" spans="1:36" ht="13.8" customHeight="1">
+    <row r="32" spans="1:36" ht="13.9" customHeight="1">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -4749,7 +4981,7 @@
       <c r="AI32" s="20"/>
       <c r="AJ32" s="30"/>
     </row>
-    <row r="33" spans="1:36" ht="13.8" customHeight="1">
+    <row r="33" spans="1:36" ht="13.9" customHeight="1">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -4787,7 +5019,7 @@
       <c r="AI33" s="20"/>
       <c r="AJ33" s="30"/>
     </row>
-    <row r="34" spans="1:36" ht="13.8" customHeight="1">
+    <row r="34" spans="1:36" ht="13.9" customHeight="1">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -4825,7 +5057,7 @@
       <c r="AI34" s="20"/>
       <c r="AJ34" s="30"/>
     </row>
-    <row r="35" spans="1:36" ht="13.8" customHeight="1">
+    <row r="35" spans="1:36" ht="13.9" customHeight="1">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -4863,7 +5095,7 @@
       <c r="AI35" s="20"/>
       <c r="AJ35" s="30"/>
     </row>
-    <row r="36" spans="1:36" ht="13.8" customHeight="1">
+    <row r="36" spans="1:36" ht="13.9" customHeight="1">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -4901,7 +5133,7 @@
       <c r="AI36" s="20"/>
       <c r="AJ36" s="30"/>
     </row>
-    <row r="37" spans="1:36" ht="13.8" customHeight="1">
+    <row r="37" spans="1:36" ht="13.9" customHeight="1">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -4939,7 +5171,7 @@
       <c r="AI37" s="20"/>
       <c r="AJ37" s="30"/>
     </row>
-    <row r="38" spans="1:36" ht="13.8" customHeight="1">
+    <row r="38" spans="1:36" ht="13.9" customHeight="1">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -4977,7 +5209,7 @@
       <c r="AI38" s="20"/>
       <c r="AJ38" s="30"/>
     </row>
-    <row r="39" spans="1:36" ht="13.8" customHeight="1">
+    <row r="39" spans="1:36" ht="13.9" customHeight="1">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -5015,7 +5247,7 @@
       <c r="AI39" s="20"/>
       <c r="AJ39" s="30"/>
     </row>
-    <row r="40" spans="1:36" ht="13.8" customHeight="1">
+    <row r="40" spans="1:36" ht="13.9" customHeight="1">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -5053,7 +5285,7 @@
       <c r="AI40" s="20"/>
       <c r="AJ40" s="30"/>
     </row>
-    <row r="41" spans="1:36" ht="13.8" customHeight="1">
+    <row r="41" spans="1:36" ht="13.9" customHeight="1">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -5091,7 +5323,7 @@
       <c r="AI41" s="20"/>
       <c r="AJ41" s="30"/>
     </row>
-    <row r="42" spans="1:36" ht="13.8" customHeight="1">
+    <row r="42" spans="1:36" ht="13.9" customHeight="1">
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -5129,7 +5361,7 @@
       <c r="AI42" s="20"/>
       <c r="AJ42" s="30"/>
     </row>
-    <row r="43" spans="1:36" ht="13.8" customHeight="1">
+    <row r="43" spans="1:36" ht="13.9" customHeight="1">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -5167,7 +5399,7 @@
       <c r="AI43" s="20"/>
       <c r="AJ43" s="30"/>
     </row>
-    <row r="44" spans="1:36" ht="13.8" customHeight="1">
+    <row r="44" spans="1:36" ht="13.9" customHeight="1">
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -5205,7 +5437,7 @@
       <c r="AI44" s="20"/>
       <c r="AJ44" s="30"/>
     </row>
-    <row r="45" spans="1:36" ht="13.8" customHeight="1">
+    <row r="45" spans="1:36" ht="13.9" customHeight="1">
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -5243,7 +5475,7 @@
       <c r="AI45" s="20"/>
       <c r="AJ45" s="30"/>
     </row>
-    <row r="46" spans="1:36" ht="13.8" customHeight="1">
+    <row r="46" spans="1:36" ht="13.9" customHeight="1">
       <c r="A46" s="19"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -5281,7 +5513,7 @@
       <c r="AI46" s="20"/>
       <c r="AJ46" s="30"/>
     </row>
-    <row r="47" spans="1:36" ht="13.8" customHeight="1">
+    <row r="47" spans="1:36" ht="13.9" customHeight="1">
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -5319,7 +5551,7 @@
       <c r="AI47" s="20"/>
       <c r="AJ47" s="30"/>
     </row>
-    <row r="48" spans="1:36" ht="13.8" customHeight="1">
+    <row r="48" spans="1:36" ht="13.9" customHeight="1">
       <c r="A48" s="19"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -5357,233 +5589,43 @@
       <c r="AI48" s="20"/>
       <c r="AJ48" s="30"/>
     </row>
-    <row r="49" spans="1:36" ht="13.8" customHeight="1">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20"/>
-      <c r="AA49" s="20"/>
-      <c r="AB49" s="20"/>
-      <c r="AC49" s="20"/>
-      <c r="AD49" s="20"/>
-      <c r="AE49" s="20"/>
-      <c r="AF49" s="20"/>
-      <c r="AG49" s="20"/>
-      <c r="AH49" s="20"/>
-      <c r="AI49" s="20"/>
-      <c r="AJ49" s="30"/>
-    </row>
-    <row r="50" spans="1:36" ht="13.8" customHeight="1">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
-      <c r="X50" s="20"/>
-      <c r="Y50" s="20"/>
-      <c r="Z50" s="20"/>
-      <c r="AA50" s="20"/>
-      <c r="AB50" s="20"/>
-      <c r="AC50" s="20"/>
-      <c r="AD50" s="20"/>
-      <c r="AE50" s="20"/>
-      <c r="AF50" s="20"/>
-      <c r="AG50" s="20"/>
-      <c r="AH50" s="20"/>
-      <c r="AI50" s="20"/>
-      <c r="AJ50" s="30"/>
-    </row>
-    <row r="51" spans="1:36" ht="13.8" customHeight="1">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="20"/>
-      <c r="AA51" s="20"/>
-      <c r="AB51" s="20"/>
-      <c r="AC51" s="20"/>
-      <c r="AD51" s="20"/>
-      <c r="AE51" s="20"/>
-      <c r="AF51" s="20"/>
-      <c r="AG51" s="20"/>
-      <c r="AH51" s="20"/>
-      <c r="AI51" s="20"/>
-      <c r="AJ51" s="30"/>
-    </row>
-    <row r="52" spans="1:36" ht="13.8" customHeight="1">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="20"/>
-      <c r="Y52" s="20"/>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="20"/>
-      <c r="AB52" s="20"/>
-      <c r="AC52" s="20"/>
-      <c r="AD52" s="20"/>
-      <c r="AE52" s="20"/>
-      <c r="AF52" s="20"/>
-      <c r="AG52" s="20"/>
-      <c r="AH52" s="20"/>
-      <c r="AI52" s="20"/>
-      <c r="AJ52" s="30"/>
-    </row>
-    <row r="53" spans="1:36" ht="13.8" customHeight="1">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="20"/>
-      <c r="Y53" s="20"/>
-      <c r="Z53" s="20"/>
-      <c r="AA53" s="20"/>
-      <c r="AB53" s="20"/>
-      <c r="AC53" s="20"/>
-      <c r="AD53" s="20"/>
-      <c r="AE53" s="20"/>
-      <c r="AF53" s="20"/>
-      <c r="AG53" s="20"/>
-      <c r="AH53" s="20"/>
-      <c r="AI53" s="20"/>
-      <c r="AJ53" s="30"/>
-    </row>
-    <row r="54" spans="1:36" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="23"/>
-      <c r="Z54" s="23"/>
-      <c r="AA54" s="23"/>
-      <c r="AB54" s="23"/>
-      <c r="AC54" s="23"/>
-      <c r="AD54" s="23"/>
-      <c r="AE54" s="23"/>
-      <c r="AF54" s="23"/>
-      <c r="AG54" s="23"/>
-      <c r="AH54" s="23"/>
-      <c r="AI54" s="23"/>
-      <c r="AJ54" s="41"/>
+    <row r="49" spans="1:36" ht="13.9" customHeight="1" thickBot="1">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="23"/>
+      <c r="AE49" s="23"/>
+      <c r="AF49" s="23"/>
+      <c r="AG49" s="23"/>
+      <c r="AH49" s="23"/>
+      <c r="AI49" s="23"/>
+      <c r="AJ49" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
